--- a/biology/Zoologie/Coucou_de_France/Coucou_de_France.xlsx
+++ b/biology/Zoologie/Coucou_de_France/Coucou_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La coucou de France est une race de poule française.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une volaille légère à ossature fine, mais robuste et aux muscles bien développés et à la chair fine et très blanche 
 </t>
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette poule est originaire de France, plus particulièrement des départements de la Sarthe et de l’Orne.
 Disparue, elle est actuellement reconstituée.
@@ -575,7 +591,9 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Masse idéale : coq : 2 kg ; poule : 1.5 kg
 Crête : frisée
@@ -613,7 +631,9 @@
           <t>Club officiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Club Percheron de la Coucou de France
 Conservatoire des races normandes et du Maine</t>
